--- a/biology/Zoologie/Cuivré_de_la_verge-d'or/Cuivré_de_la_verge-d'or.xlsx
+++ b/biology/Zoologie/Cuivré_de_la_verge-d'or/Cuivré_de_la_verge-d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
+          <t>Cuivré_de_la_verge-d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena virgaureae
 Le Cuivré de la verge-d'or (Lycaena virgaureae) est une espèce paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
+          <t>Cuivré_de_la_verge-d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,52 +524,90 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Lycaena virgaureae a été décrite par Carl von Linné en 1758.
-Synonymes[1] : 
+Synonymes : 
 Papilio virgaureae Linnaeus, 1758 — protonyme
 Heodes virgaureae (Linnaeus, 1758)
 Lycaena miegii (Vogel, 1857)
-Lycaena montana (Meyer-Dür, 1851)
-Sous-espèces
-Lycaena virgaureae virgaureae
+Lycaena montana (Meyer-Dür, 1851)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lycaena virgaureae virgaureae
 Lycaena virgaureae virgaureola
 Lycaena virgaureae montanus (Meyer-Dür, 1851)
 Lycaena virgaureae sublpinus (Vogel, 1857)
 Lycaena virgaureae miegli
 Lycaena virgaureae lena (Kurenzov, 1970)
-Lycaena virgaureae armeniaca (A. Bang-Haas, 1906)[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Lycaena virgaureae armeniaca (A. Bang-Haas, 1906)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : le Cuivré de la verge-d'or, l'Argus satiné, le Cuivré satiné, le Lycène de la Verge-d'or, le Polyomate de la Verge-d'or[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : le Cuivré de la verge-d'or, l'Argus satiné, le Cuivré satiné, le Lycène de la Verge-d'or, le Polyomate de la Verge-d'or
 en anglais : Scarce Copper
 en allemand : Dukatenfalter
 en néerlandais : Morgenrood
@@ -565,74 +615,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-Le Cuivré de la verge-d'or est un petit papillon présentant des variations entre les sexes et entre les sous-espèces. Le dessus du mâle est cuivre bordé de marron, le dessus de la femelle est semblable dans la sous-espèce L. v. miegli, cuivré très marquée de marron et de lignes de taches marron chez toutes les autres femelles et le mâle de L. v. montanus.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré de la verge-d'or est un petit papillon présentant des variations entre les sexes et entre les sous-espèces. Le dessus du mâle est cuivre bordé de marron, le dessus de la femelle est semblable dans la sous-espèce L. v. miegli, cuivré très marquée de marron et de lignes de taches marron chez toutes les autres femelles et le mâle de L. v. montanus.
 Le revers, d'un ton orange clair présente aux postérieures une ligne submarginale de points blancs caractéristique.
 			Lycaena virgaureae ♂   MHNT
 			Lycaena virgaureae ♂  △
-Chenille et chrysalide
-Les œufs sont pondus sous la rosette de la plante hôte.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, de juillet à septembre.
-Lycaena virgaureae hiverne à l'état d'œuf ou de jeune larve[4].
-Plantes hôtes
-Les plantes hôtes sont des Rumex (oseilles), en particulier Rumex acetosella[2],[4].
 </t>
         </is>
       </c>
@@ -643,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_de_la_verge-d%27or</t>
+          <t>Cuivré_de_la_verge-d'or</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,17 +676,201 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus sous la rosette de la plante hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, de juillet à septembre.
+Lycaena virgaureae hiverne à l'état d'œuf ou de jeune larve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Rumex (oseilles), en particulier Rumex acetosella,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition est eurasienne, elle comporte toute l'Europe continentale du nord de l'Espagne à la Scandinavie, la Turquie, l'Arménie,  puis la Sibérie, la Mongolie et l'Altaï[2].
-En France on ne le trouve plus que dans les Ardennes et des Alpes au Massif central et aux Pyrénées[5],[6].
-Biotope
-C'est un lépidoptère des milieux ouverts et fleuris, jusqu'à 2 400 m d'altitude.
-Protection
-Pas de statut de protection particulier[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition est eurasienne, elle comporte toute l'Europe continentale du nord de l'Espagne à la Scandinavie, la Turquie, l'Arménie,  puis la Sibérie, la Mongolie et l'Altaï.
+En France on ne le trouve plus que dans les Ardennes et des Alpes au Massif central et aux Pyrénées,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lépidoptère des milieux ouverts et fleuris, jusqu'à 2 400 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_de_la_verge-d'or</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_de_la_verge-d%27or</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
